--- a/Data/FundsTransferGeneral.xlsx
+++ b/Data/FundsTransferGeneral.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FT2236402SYQ81MM</t>
   </si>
@@ -49,12 +49,28 @@
   </si>
   <si>
     <t>FT230030XLJ94TRX</t>
+  </si>
+  <si>
+    <t>FT2316800GH03LFZ</t>
+  </si>
+  <si>
+    <t>FT231680T6161WYX</t>
+  </si>
+  <si>
+    <t>FT231680T6162257</t>
+  </si>
+  <si>
+    <t>FT2316800GH04LW6</t>
+  </si>
+  <si>
+    <t>FT2316805D7D108X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -424,6 +440,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/FundsTransferGeneral.xlsx
+++ b/Data/FundsTransferGeneral.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FT2236402SYQ81MM</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>FT2316805D7D108X</t>
+  </si>
+  <si>
+    <t>FT23168119X2K9P6</t>
+  </si>
+  <si>
+    <t>FT231680RGF8G6S1</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -465,6 +471,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/FundsTransferGeneral.xlsx
+++ b/Data/FundsTransferGeneral.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FT2236402SYQ81MM</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>FT231680RGF8G6S1</t>
+  </si>
+  <si>
+    <t>FT231680B2S7WCZ1</t>
+  </si>
+  <si>
+    <t>FT231680N8731K99</t>
+  </si>
+  <si>
+    <t>FT231680NBJ05K5C</t>
+  </si>
+  <si>
+    <t>FT231680NBJ05LMJ</t>
+  </si>
+  <si>
+    <t>FT231680G1NNFD6X</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -481,6 +496,31 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/FundsTransferGeneral.xlsx
+++ b/Data/FundsTransferGeneral.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,79 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>FT2236402SYQ81MM</t>
+    <t>Transaction Number</t>
   </si>
   <si>
-    <t>FT223640PV3PXKLZ</t>
-  </si>
-  <si>
-    <t>FT223640PV3PXSL2</t>
-  </si>
-  <si>
-    <t>FT2236406R2Q9S0X</t>
-  </si>
-  <si>
-    <t>FT223640HR51FBMK</t>
-  </si>
-  <si>
-    <t>FT223640JZJD63J4</t>
-  </si>
-  <si>
-    <t>FT2236408L5LKK4K</t>
-  </si>
-  <si>
-    <t>FT223640JZJD6CJK</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>FT230030XLJ94TRX</t>
-  </si>
-  <si>
-    <t>FT2316800GH03LFZ</t>
-  </si>
-  <si>
-    <t>FT231680T6161WYX</t>
-  </si>
-  <si>
-    <t>FT231680T6162257</t>
-  </si>
-  <si>
-    <t>FT2316800GH04LW6</t>
-  </si>
-  <si>
-    <t>FT2316805D7D108X</t>
-  </si>
-  <si>
-    <t>FT23168119X2K9P6</t>
-  </si>
-  <si>
-    <t>FT231680RGF8G6S1</t>
-  </si>
-  <si>
-    <t>FT231680B2S7WCZ1</t>
-  </si>
-  <si>
-    <t>FT231680N8731K99</t>
-  </si>
-  <si>
-    <t>FT231680NBJ05K5C</t>
-  </si>
-  <si>
-    <t>FT231680NBJ05LMJ</t>
-  </si>
-  <si>
-    <t>FT231680G1NNFD6X</t>
+    <t>FT231850FF7GLCWC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,122 +342,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
